--- a/DOCUMENTAÇÃO APP/CRONOGRAMA DO PROJETO.xlsx
+++ b/DOCUMENTAÇÃO APP/CRONOGRAMA DO PROJETO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\NOVO GIT ONG\Projeto-ONG\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projeto-ONG-Testes\DOCUMENTAÇÃO APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F53E2-725C-4A45-AF6D-4A082F8A7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E11A82-A6A0-49BD-BE51-F428B619FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3645" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{2910098C-C8C4-46C6-B7BC-CA996E28B137}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Levantar os requisitos funcionais</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Roberto</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Leonardo</t>
   </si>
   <si>
@@ -86,13 +83,91 @@
   </si>
   <si>
     <t>Roberto, Leonardo, Jaqueline</t>
+  </si>
+  <si>
+    <t>Daniel / Roberto</t>
+  </si>
+  <si>
+    <t>1º SPRINT</t>
+  </si>
+  <si>
+    <t>2º SPRINT</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>Parazo esgotado</t>
+  </si>
+  <si>
+    <t>Concluido no prazo</t>
+  </si>
+  <si>
+    <t>Concluido com atraso</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Leonardo / Roberto</t>
+  </si>
+  <si>
+    <t>Correções e melhorias UML, MER e DER</t>
+  </si>
+  <si>
+    <t>Correções, Melhorias e Novas Funções</t>
+  </si>
+  <si>
+    <t>Testes: funcionalidades e Usabilidades do APP</t>
+  </si>
+  <si>
+    <t>Deploy: Backend, Frontend, Banco de dados</t>
+  </si>
+  <si>
+    <t>Jaqueline, Leonardo, Roberto</t>
+  </si>
+  <si>
+    <t>Documentação do Sistema e Projéto</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Desenvolver modulo Financeiro</t>
+  </si>
+  <si>
+    <t>Desenvolver modulo relatório</t>
+  </si>
+  <si>
+    <t>Desenvlver modulo assistência</t>
+  </si>
+  <si>
+    <t>Levantamento das nececidades sprint 2</t>
+  </si>
+  <si>
+    <t>Atualizações nos modulos, login, funcionario, assistido, familiar, saúde</t>
+  </si>
+  <si>
+    <t>Mibile</t>
+  </si>
+  <si>
+    <t>jaqueline</t>
+  </si>
+  <si>
+    <t>Desenvolver modulo encaminhamento</t>
+  </si>
+  <si>
+    <t>Deploy e hospedagem do APP na PlayStore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +183,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +238,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,13 +287,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -180,13 +300,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -195,24 +311,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -224,71 +323,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -297,42 +336,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,17 +741,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA734A-D3EA-4074-A8A6-747E02041950}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
     <col min="4" max="11" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.28515625" customWidth="1"/>
@@ -670,244 +763,238 @@
     <col min="33" max="33" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="16"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="1">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H4" s="1">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I4" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J4" s="1">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K4" s="1">
         <v>9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M4" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N4" s="1">
         <v>12</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O4" s="1">
         <v>13</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P4" s="1">
         <v>14</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q4" s="1">
         <v>15</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R4" s="1">
         <v>16</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S4" s="1">
         <v>17</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T4" s="1">
         <v>18</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U4" s="1">
         <v>19</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V4" s="1">
         <v>20</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W4" s="1">
         <v>21</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X4" s="1">
         <v>22</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y4" s="1">
         <v>23</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z4" s="1">
         <v>24</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA4" s="1">
         <v>25</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB4" s="1">
         <v>26</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC4" s="1">
         <v>27</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD4" s="1">
         <v>28</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE4" s="1">
         <v>29</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF4" s="1">
         <v>30</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG4" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="6"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -923,14 +1010,14 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="6"/>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -938,38 +1025,38 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -977,38 +1064,38 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1040,14 +1127,14 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>12</v>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1056,37 +1143,37 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1096,73 +1183,1289 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="6"/>
-    </row>
-    <row r="11" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+    </row>
+    <row r="15" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="11"/>
+      <c r="S18" s="1">
+        <v>17</v>
+      </c>
+      <c r="T18" s="1">
+        <v>18</v>
+      </c>
+      <c r="U18" s="1">
+        <v>19</v>
+      </c>
+      <c r="V18" s="1">
+        <v>20</v>
+      </c>
+      <c r="W18" s="1">
+        <v>21</v>
+      </c>
+      <c r="X18" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="21"/>
+    </row>
+    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="36"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="30"/>
+    </row>
+    <row r="27" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+    </row>
+    <row r="28" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="6"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="30"/>
+    </row>
+    <row r="34" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+    </row>
+    <row r="35" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="36"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="36"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="36"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="36"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="36"/>
+    </row>
+    <row r="40" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="36"/>
+    </row>
+    <row r="42" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="35"/>
+    </row>
+    <row r="43" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:AG1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="13">
+    <mergeCell ref="A16:AG16"/>
+    <mergeCell ref="C17:AG17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B26:AG26"/>
+    <mergeCell ref="B33:AG33"/>
+    <mergeCell ref="C3:AG3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A15:AG15"/>
+    <mergeCell ref="A14:AG14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
